--- a/NaverPowerLinkRanking/MultiSearchTestSample/Test Sample5.xlsx
+++ b/NaverPowerLinkRanking/MultiSearchTestSample/Test Sample5.xlsx
@@ -81,8 +81,36 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -360,7 +388,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/NaverPowerLinkRanking/MultiSearchTestSample/Test Sample5.xlsx
+++ b/NaverPowerLinkRanking/MultiSearchTestSample/Test Sample5.xlsx
@@ -81,36 +81,8 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -388,7 +360,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
